--- a/expenditures.xlsx
+++ b/expenditures.xlsx
@@ -1,109 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitchelldownes/Documents/University Work/Year 3/Final Project/Current Application/Development/Early Development/Version 0.4/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA1EF5-1E01-5043-A81E-0CBBA4FCB37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="10860" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11880" yWindow="760" windowWidth="16100" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="monthlyBill" sheetId="1" r:id="rId1"/>
-    <sheet name="disposibleIncome" sheetId="2" r:id="rId2"/>
+    <sheet name="monthlyBill" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="disposibleIncome" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Housing</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Internet &amp; TV</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Hobbies</t>
-  </si>
-  <si>
-    <t>Cinema</t>
-  </si>
-  <si>
-    <t>Holiday Payment</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,31 +69,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -182,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +262,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +314,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,149 +507,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.83203125" bestFit="1" customWidth="1" min="2" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>44501</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="n">
         <v>44531</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="6" t="n">
         <v>44562</v>
       </c>
-      <c r="E1" s="1">
+      <c r="D1" s="6" t="n">
         <v>44593</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="E1" s="6" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7" t="n">
         <v>120</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7" t="n">
         <v>87</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Housing</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>795</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>795</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>795</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Electricity</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>250</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>350</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>275</v>
+      </c>
+      <c r="E4" s="7" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>250</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>280</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>260</v>
+      </c>
+      <c r="E5" s="7" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>795</v>
-      </c>
-      <c r="C3" s="2">
-        <v>795</v>
-      </c>
-      <c r="D3" s="2">
-        <v>795</v>
-      </c>
-      <c r="E3" s="2">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>250</v>
-      </c>
-      <c r="C4" s="2">
-        <v>350</v>
-      </c>
-      <c r="D4" s="2">
-        <v>275</v>
-      </c>
-      <c r="E4" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>250</v>
-      </c>
-      <c r="C5" s="2">
-        <v>280</v>
-      </c>
-      <c r="D5" s="2">
-        <v>260</v>
-      </c>
-      <c r="E5" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="C6" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Internet &amp; TV</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="E6" s="2">
+      <c r="C7" s="7" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="D7" s="7" t="n">
         <v>75</v>
       </c>
-      <c r="C7" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="E7" s="7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="2">
-        <v>49</v>
+      <c r="E8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Car Rental</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -574,132 +683,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301A12B2-1601-D94D-A6BD-FF48BC500B74}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.83203125" bestFit="1" customWidth="1" min="2" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>44501</v>
-      </c>
-      <c r="C1" s="4">
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="n">
         <v>44531</v>
       </c>
-      <c r="D1" s="4">
+      <c r="C1" s="6" t="n">
         <v>44562</v>
       </c>
-      <c r="E1" s="4">
+      <c r="D1" s="6" t="n">
         <v>44593</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="E1" s="6" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Gym</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Hobbies</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Cinema</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5">
-        <v>345</v>
-      </c>
-      <c r="D4" s="5">
-        <v>120</v>
-      </c>
-      <c r="E4" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5">
-        <v>75</v>
-      </c>
-      <c r="D5" s="5">
-        <v>65</v>
-      </c>
-      <c r="E5" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="E6" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Holiday Payment</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="E7" s="5">
-        <v>45</v>
+      <c r="E7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TestDisposible</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/expenditures.xlsx
+++ b/expenditures.xlsx
@@ -10,17 +10,18 @@
     <sheet name="disposibleIncome" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -39,15 +40,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -94,23 +87,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,35 +506,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="10.83203125" bestFit="1" customWidth="1" min="2" max="5"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Bill</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n">
+      <c r="B1" s="7" t="n">
         <v>44531</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="7" t="n">
         <v>44562</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="7" t="n">
         <v>44593</v>
       </c>
-      <c r="E1" s="6" t="n">
+      <c r="E1" s="7" t="n">
         <v>44621</v>
       </c>
+      <c r="F1" s="5" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,16 +544,17 @@
           <t>Food</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="E2" s="7" t="inlineStr"/>
+      <c r="E2" s="8" t="inlineStr"/>
+      <c r="F2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,16 +562,16 @@
           <t>Housing</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>795</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>795</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>795</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>795</v>
       </c>
     </row>
@@ -584,16 +581,20 @@
           <t>Electricity</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>350</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>275</v>
       </c>
-      <c r="E4" s="7" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,16 +602,16 @@
           <t>Car</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>250</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>280</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>260</v>
       </c>
-      <c r="E5" s="7" t="inlineStr"/>
+      <c r="E5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -618,19 +619,17 @@
           <t>Water</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="E6" s="8" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -639,16 +638,16 @@
           <t>Internet &amp; TV</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="E7" s="7" t="inlineStr"/>
+      <c r="E7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,16 +655,16 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +674,16 @@
       </c>
       <c r="E9" t="n">
         <v>195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -700,127 +709,131 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Bill</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n">
+      <c r="B1" s="7" t="n">
         <v>44531</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="7" t="n">
         <v>44562</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="7" t="n">
         <v>44593</v>
       </c>
-      <c r="E1" s="6" t="n">
+      <c r="E1" s="7" t="n">
         <v>44621</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Gym</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Restaurant</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Shopping</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Hobbies</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Cinema</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Holiday Payment</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -831,10 +844,8 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="E8" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/expenditures.xlsx
+++ b/expenditures.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -590,10 +590,8 @@
       <c r="D4" s="8" t="n">
         <v>275</v>
       </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
+      <c r="E4" s="8" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -672,6 +670,9 @@
           <t>Car Rental</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>195</v>
       </c>
@@ -682,8 +683,26 @@
           <t>gas</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>345</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -841,9 +860,6 @@
           <t>TestDisposible</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>33</v>
       </c>
